--- a/DadosCombustivel.xlsx
+++ b/DadosCombustivel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Nova pasta\Nova pasta\ProjP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Nova pasta\ProjP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5D2A1D-DDA7-440B-801B-D1D6CA54E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282FF18-E746-4ADB-B8E6-D6AF712B4602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="16200" windowHeight="9360" xr2:uid="{B02CF9AD-7E04-4453-A70F-4ADB8D4E0C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{B02CF9AD-7E04-4453-A70F-4ADB8D4E0C13}"/>
   </bookViews>
   <sheets>
     <sheet name="LER" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Acre</t>
   </si>
@@ -110,15 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">Santa Catarina </t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,14 +180,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -503,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B000D82-44EC-4A5F-8C37-FA8796FF5241}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,197 +516,232 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>4.0839999999999996</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>5.7889999999999997</v>
       </c>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>4.3360000000000003</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>5.9020000000000001</v>
       </c>
-      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>4.1289999999999996</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>5.9720000000000004</v>
       </c>
-      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>3.956</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>5.3579999999999997</v>
       </c>
-      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>3.6720000000000002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>5.3280000000000003</v>
       </c>
-      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>5.2380000000000004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>6.258</v>
       </c>
-      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>4.774</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>5.8840000000000003</v>
       </c>
-      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>4.1369999999999996</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>5.5129999999999999</v>
       </c>
-      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>4.3380000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>5.6269999999999998</v>
       </c>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>4.673</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>5.63</v>
       </c>
-      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>4.7469999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>5.7690000000000001</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>4.8490000000000002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>5.7830000000000004</v>
       </c>
-      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>4.7249999999999996</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>5.577</v>
       </c>
-      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>4.4189999999999996</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>5.9539999999999997</v>
       </c>
-      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>5.2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>5.9109999999999996</v>
       </c>
-      <c r="D16" s="3"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
